--- a/data/epp-09-other-data.xlsx
+++ b/data/epp-09-other-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4490A6-118F-4F42-9148-46D6207F6F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BB4D7-8225-2C4B-959A-31252168CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -120,99 +120,63 @@
     <t>{RANDCHARS(65) &amp; "@example.com"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>fax</t>
+  </si>
+  <si>
+    <t>faxExt</t>
+  </si>
+  <si>
+    <t>voiceExt</t>
+  </si>
+  <si>
+    <t>Phone (if supported)</t>
+  </si>
+  <si>
+    <t>Voice extension (if supported)</t>
+  </si>
+  <si>
+    <t>Fax (if supported)</t>
+  </si>
+  <si>
+    <t>Fax extension (if supported)</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_VOICE</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_FAX</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_EMAIL</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>chg</t>
+  </si>
+  <si>
+    <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
+  </si>
+  <si>
+    <t>Data Provider for epp-09</t>
+  </si>
+  <si>
+    <t>Notes for authors:
 * The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
 * Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
 * Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
+* All cells MUST have the "Text" type.
 * Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
-    <t>fax</t>
-  </si>
-  <si>
-    <t>faxExt</t>
-  </si>
-  <si>
-    <t>voiceExt</t>
-  </si>
-  <si>
-    <t>Phone (if supported)</t>
-  </si>
-  <si>
-    <t>Voice extension (if supported)</t>
-  </si>
-  <si>
-    <t>Fax (if supported)</t>
-  </si>
-  <si>
-    <t>Fax extension (if supported)</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_VOICE</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_FAX</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_EMAIL</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>chg</t>
-  </si>
-  <si>
-    <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
-  </si>
-  <si>
-    <t>Data Provider for epp-09</t>
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,13 +201,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -849,7 +806,7 @@
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,7 +825,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -903,9 +860,9 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -929,19 +886,19 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>1</v>
@@ -956,16 +913,16 @@
     <row r="8" spans="2:10" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -1001,7 +958,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -1022,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -1036,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -1047,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -1058,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -1080,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -1091,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -1102,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
@@ -1116,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
@@ -1127,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
@@ -1138,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
@@ -1149,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -1160,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
@@ -1171,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
@@ -1182,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
@@ -1196,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
@@ -1207,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
@@ -1218,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
@@ -1229,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
@@ -1240,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
